--- a/testdata/登录_工厂PC端.xlsx
+++ b/testdata/登录_工厂PC端.xlsx
@@ -430,7 +430,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'state': True, 'data': 'a9937db6ea263d3110a2cc1022e7157ac6933ff8'}</t>
+          <t>{'state': True, 'data': 'd822c0df2eca494e7d08bdcb73409545e37cc207'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
